--- a/Code/Results/Cases/Case_3_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.0439436625734</v>
+        <v>11.00503465770099</v>
       </c>
       <c r="C2">
-        <v>7.88090884292087</v>
+        <v>9.860640405116646</v>
       </c>
       <c r="D2">
-        <v>5.392846255237635</v>
+        <v>5.883248273967437</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.98603276375643</v>
+        <v>27.97989136244867</v>
       </c>
       <c r="G2">
-        <v>2.106713040119014</v>
+        <v>3.660796443117949</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.55777867470149</v>
+        <v>25.70650928085748</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.22198870474388</v>
+        <v>8.140289405652602</v>
       </c>
       <c r="L2">
-        <v>7.197487973966994</v>
+        <v>11.17229863751233</v>
       </c>
       <c r="M2">
-        <v>9.903769085821109</v>
+        <v>14.19007656298228</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.57173957446822</v>
+        <v>25.14335259637067</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.18766426928899</v>
+        <v>10.75536320994728</v>
       </c>
       <c r="C3">
-        <v>7.830600696084112</v>
+        <v>9.846550413190339</v>
       </c>
       <c r="D3">
-        <v>5.251896952884944</v>
+        <v>5.833088253940462</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.77598545247488</v>
+        <v>28.03194421124823</v>
       </c>
       <c r="G3">
-        <v>2.111315744604003</v>
+        <v>3.6625355580594</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.71265336111903</v>
+        <v>25.80110696411576</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.64979382249288</v>
+        <v>7.948690004046215</v>
       </c>
       <c r="L3">
-        <v>7.09878129535457</v>
+        <v>11.1815379742186</v>
       </c>
       <c r="M3">
-        <v>9.55223435701139</v>
+        <v>14.15337675779295</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.61691032653077</v>
+        <v>25.22329460217201</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63095892042214</v>
+        <v>10.6008167639836</v>
       </c>
       <c r="C4">
-        <v>7.800007067983036</v>
+        <v>9.837998286955269</v>
       </c>
       <c r="D4">
-        <v>5.162873226343692</v>
+        <v>5.801571884076187</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.66306407453721</v>
+        <v>28.0705530818498</v>
       </c>
       <c r="G4">
-        <v>2.114232703472678</v>
+        <v>3.663660554525146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.81881158579255</v>
+        <v>25.86365266166924</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.28184101474973</v>
+        <v>7.82971824881734</v>
       </c>
       <c r="L4">
-        <v>7.041187576421408</v>
+        <v>11.18892913295986</v>
       </c>
       <c r="M4">
-        <v>9.333517348702257</v>
+        <v>14.13287277290985</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.65741196433737</v>
+        <v>25.27723960712031</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.39628560420841</v>
+        <v>10.53761492041673</v>
       </c>
       <c r="C5">
-        <v>7.787616611875764</v>
+        <v>9.83453906704924</v>
       </c>
       <c r="D5">
-        <v>5.126000367158937</v>
+        <v>5.788553091610778</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.62101691251522</v>
+        <v>28.0879553250115</v>
       </c>
       <c r="G5">
-        <v>2.115444700770333</v>
+        <v>3.66413342036395</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.86475423243779</v>
+        <v>25.89026221378755</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.12779761231867</v>
+        <v>7.780970590208806</v>
       </c>
       <c r="L5">
-        <v>7.018485746073118</v>
+        <v>11.19237359789029</v>
       </c>
       <c r="M5">
-        <v>9.243796708322812</v>
+        <v>14.12503361667828</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.67700789898361</v>
+        <v>25.30044318271412</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.3568456995409</v>
+        <v>10.52710955437921</v>
       </c>
       <c r="C6">
-        <v>7.785563887601889</v>
+        <v>9.833966253087299</v>
       </c>
       <c r="D6">
-        <v>5.119842606535452</v>
+        <v>5.786380868912155</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.61427258256249</v>
+        <v>28.09094565117763</v>
       </c>
       <c r="G6">
-        <v>2.115647373169607</v>
+        <v>3.664212811644187</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.87254215850509</v>
+        <v>25.89474844392193</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.1019739231116</v>
+        <v>7.772862088976937</v>
       </c>
       <c r="L6">
-        <v>7.014762786831247</v>
+        <v>11.1929716825391</v>
       </c>
       <c r="M6">
-        <v>9.228866976641994</v>
+        <v>14.1237632852976</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.68044503375486</v>
+        <v>25.304369788568</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62782569863271</v>
+        <v>10.59996518209634</v>
       </c>
       <c r="C7">
-        <v>7.799839652298496</v>
+        <v>9.837951528892837</v>
       </c>
       <c r="D7">
-        <v>5.162378315455851</v>
+        <v>5.801397012629305</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.66248103656723</v>
+        <v>28.07078102187032</v>
       </c>
       <c r="G7">
-        <v>2.114248953902344</v>
+        <v>3.663666873312579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.81942045195955</v>
+        <v>25.86400698633827</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.27978001139438</v>
+        <v>7.82906180404007</v>
       </c>
       <c r="L7">
-        <v>7.040878289068584</v>
+        <v>11.18897383447514</v>
       </c>
       <c r="M7">
-        <v>9.332309559106546</v>
+        <v>14.13276495291381</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.65766388217926</v>
+        <v>25.27754759888879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75510239292061</v>
+        <v>10.91926013419522</v>
       </c>
       <c r="C8">
-        <v>7.863502556491937</v>
+        <v>9.855762129294206</v>
       </c>
       <c r="D8">
-        <v>5.344778228348977</v>
+        <v>5.866105023527327</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.91024119160234</v>
+        <v>27.99645772941896</v>
       </c>
       <c r="G8">
-        <v>2.10828147383414</v>
+        <v>3.661384250289538</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.60882121515867</v>
+        <v>25.73820015378546</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.02818864717461</v>
+        <v>8.074541899372617</v>
       </c>
       <c r="L8">
-        <v>7.162835484096569</v>
+        <v>11.17512805891214</v>
       </c>
       <c r="M8">
-        <v>9.783231099112919</v>
+        <v>14.17700487197114</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.58459272860387</v>
+        <v>25.16990689755172</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.72167069838595</v>
+        <v>11.53170222326224</v>
       </c>
       <c r="C9">
-        <v>7.990601777898311</v>
+        <v>9.891437079451872</v>
       </c>
       <c r="D9">
-        <v>5.681643730349947</v>
+        <v>5.987090555901492</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.52583585116483</v>
+        <v>27.90357224007345</v>
       </c>
       <c r="G9">
-        <v>2.097278472062562</v>
+        <v>3.657359663086222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.28839137587109</v>
+        <v>25.5269184551805</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.36126387534636</v>
+        <v>8.542535121834231</v>
       </c>
       <c r="L9">
-        <v>7.425363848125843</v>
+        <v>11.16158617989361</v>
       </c>
       <c r="M9">
-        <v>10.6395579370644</v>
+        <v>14.27958681603031</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.54797675225775</v>
+        <v>24.99745804377318</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.02008471227337</v>
+        <v>11.96852682450382</v>
       </c>
       <c r="C10">
-        <v>8.085256926018202</v>
+        <v>9.918053342599071</v>
       </c>
       <c r="D10">
-        <v>5.915090628391233</v>
+        <v>6.072104077648014</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.05974511143701</v>
+        <v>27.86767906342812</v>
       </c>
       <c r="G10">
-        <v>2.089588710292857</v>
+        <v>3.654675307896885</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.11637505172704</v>
+        <v>25.39331081014716</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.25613319767786</v>
+        <v>8.874640639165385</v>
       </c>
       <c r="L10">
-        <v>7.631711524383604</v>
+        <v>11.15989796724426</v>
       </c>
       <c r="M10">
-        <v>11.24569289187769</v>
+        <v>14.36420667393092</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.59351605215463</v>
+        <v>24.89440495533887</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.57952639598434</v>
+        <v>12.16347822580899</v>
       </c>
       <c r="C11">
-        <v>8.128578842534555</v>
+        <v>9.930239078816019</v>
       </c>
       <c r="D11">
-        <v>6.018001399637172</v>
+        <v>6.109881366526182</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.32070522294666</v>
+        <v>27.85838979883902</v>
       </c>
       <c r="G11">
-        <v>2.086168529000114</v>
+        <v>3.653512699222399</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.05352707574161</v>
+        <v>25.3372296905568</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.64459000268285</v>
+        <v>9.022499389160169</v>
       </c>
       <c r="L11">
-        <v>7.728331187093573</v>
+        <v>11.16091394207632</v>
       </c>
       <c r="M11">
-        <v>11.5154277308044</v>
+        <v>14.4046194864403</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.63155421580858</v>
+        <v>24.85267620596873</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.78693115034097</v>
+        <v>12.23669048113209</v>
       </c>
       <c r="C12">
-        <v>8.145020368371869</v>
+        <v>9.934863723247192</v>
       </c>
       <c r="D12">
-        <v>6.056481441966674</v>
+        <v>6.124053168886225</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.4221402517266</v>
+        <v>27.8558845312153</v>
       </c>
       <c r="G12">
-        <v>2.084883950927815</v>
+        <v>3.653080819111362</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.03208812446994</v>
+        <v>25.31666933413077</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.78899874223785</v>
+        <v>9.077975851162147</v>
       </c>
       <c r="L12">
-        <v>7.765298894911562</v>
+        <v>11.1615541468363</v>
       </c>
       <c r="M12">
-        <v>11.61663772254603</v>
+        <v>14.42019030506381</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.64857911921321</v>
+        <v>24.83761668570327</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.74245972264831</v>
+        <v>12.22095118222156</v>
       </c>
       <c r="C13">
-        <v>8.14147778754384</v>
+        <v>9.933867287423798</v>
       </c>
       <c r="D13">
-        <v>6.048216128001381</v>
+        <v>6.121007036789621</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.40017791959316</v>
+        <v>27.85637906299462</v>
       </c>
       <c r="G13">
-        <v>2.085160148214689</v>
+        <v>3.653173460396522</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.03659802403022</v>
+        <v>25.32106728081778</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.75801756265227</v>
+        <v>9.066051662941103</v>
       </c>
       <c r="L13">
-        <v>7.75732058354265</v>
+        <v>11.16140492291256</v>
       </c>
       <c r="M13">
-        <v>11.59488282033647</v>
+        <v>14.41682509939343</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.64479389028149</v>
+        <v>24.84082698654918</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59667850349884</v>
+        <v>12.16951408554181</v>
       </c>
       <c r="C14">
-        <v>8.129930772471177</v>
+        <v>9.930619353173915</v>
       </c>
       <c r="D14">
-        <v>6.021177090006978</v>
+        <v>6.11104999473775</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.32899786852173</v>
+        <v>27.85816340044632</v>
       </c>
       <c r="G14">
-        <v>2.086062637921271</v>
+        <v>3.653477000576048</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.05171512000384</v>
+        <v>25.33552461790474</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.65652458365643</v>
+        <v>9.027074063115109</v>
       </c>
       <c r="L14">
-        <v>7.731365016038742</v>
+        <v>11.16096149842072</v>
       </c>
       <c r="M14">
-        <v>11.52377339269047</v>
+        <v>14.40589519889284</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.63290160264424</v>
+        <v>24.85142236552363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.50680596646382</v>
+        <v>12.13792572267377</v>
       </c>
       <c r="C15">
-        <v>8.122862606555852</v>
+        <v>9.928631193558338</v>
       </c>
       <c r="D15">
-        <v>6.00455059629067</v>
+        <v>6.104933474304623</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.28573893738612</v>
+        <v>27.85938819552178</v>
       </c>
       <c r="G15">
-        <v>2.086616795978557</v>
+        <v>3.653664017127807</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.06128658366415</v>
+        <v>25.34446825926942</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.594006447038</v>
+        <v>9.003130696508556</v>
       </c>
       <c r="L15">
-        <v>7.715515504213763</v>
+        <v>11.16072312549129</v>
       </c>
       <c r="M15">
-        <v>11.48009345712361</v>
+        <v>14.39923487820156</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.62596235819133</v>
+        <v>24.85800904998752</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98289956735922</v>
+        <v>11.95570443142657</v>
       </c>
       <c r="C16">
-        <v>8.082430903046847</v>
+        <v>9.917258455404038</v>
       </c>
       <c r="D16">
-        <v>5.908297503113409</v>
+        <v>6.069616802448202</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.04305602699515</v>
+        <v>27.86842780847893</v>
       </c>
       <c r="G16">
-        <v>2.089813741831553</v>
+        <v>3.654752461190897</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.12080451526993</v>
+        <v>25.39707044286359</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.2303705398632</v>
+        <v>8.864908458559242</v>
       </c>
       <c r="L16">
-        <v>7.625451212056801</v>
+        <v>11.15986738128918</v>
       </c>
       <c r="M16">
-        <v>11.22793812051644</v>
+        <v>14.36160348897396</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.59138984783124</v>
+        <v>24.89723580964861</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.65353663282353</v>
+        <v>11.84290207750149</v>
       </c>
       <c r="C17">
-        <v>8.057693614250683</v>
+        <v>9.910300864749368</v>
       </c>
       <c r="D17">
-        <v>5.848394667966674</v>
+        <v>6.047718266982384</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.89882179739278</v>
+        <v>27.87577645488735</v>
       </c>
       <c r="G17">
-        <v>2.091794483577091</v>
+        <v>3.655435145475921</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.16136298213173</v>
+        <v>25.4305439506291</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.0025094767899</v>
+        <v>8.779251362363469</v>
       </c>
       <c r="L17">
-        <v>7.570893035602615</v>
+        <v>11.15979861148226</v>
       </c>
       <c r="M17">
-        <v>11.07165901885596</v>
+        <v>14.339003321795</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.57470994382298</v>
+        <v>24.92262051991119</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.46115501695297</v>
+        <v>11.77767091356112</v>
       </c>
       <c r="C18">
-        <v>8.043490177086458</v>
+        <v>9.906306433609688</v>
       </c>
       <c r="D18">
-        <v>5.813631816239165</v>
+        <v>6.035038774182333</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.81756362266605</v>
+        <v>27.88066574601737</v>
       </c>
       <c r="G18">
-        <v>2.092941129202863</v>
+        <v>3.655833317793363</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.18613180680738</v>
+        <v>25.45023914369836</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.86969708374703</v>
+        <v>8.729683634715</v>
       </c>
       <c r="L18">
-        <v>7.539772485166692</v>
+        <v>11.1599270414018</v>
       </c>
       <c r="M18">
-        <v>10.98121021062861</v>
+        <v>14.32618544541974</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.5667388229385</v>
+        <v>24.93770584442036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.39551149945211</v>
+        <v>11.75552684556627</v>
       </c>
       <c r="C19">
-        <v>8.038685442702635</v>
+        <v>9.904955288379577</v>
       </c>
       <c r="D19">
-        <v>5.801809328599199</v>
+        <v>6.030731431653118</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.79034268545617</v>
+        <v>27.88243495180489</v>
       </c>
       <c r="G19">
-        <v>2.093330649201804</v>
+        <v>3.655969079742209</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.19476123483781</v>
+        <v>25.45698350656648</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.82442860189474</v>
+        <v>8.712850965893995</v>
       </c>
       <c r="L19">
-        <v>7.529280718221313</v>
+        <v>11.15999940718532</v>
       </c>
       <c r="M19">
-        <v>10.95049173298739</v>
+        <v>14.32187689935254</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.56431467340723</v>
+        <v>24.94289667538514</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.68890192023074</v>
+        <v>11.85494685637479</v>
       </c>
       <c r="C20">
-        <v>8.060324385287533</v>
+        <v>9.911040754618975</v>
       </c>
       <c r="D20">
-        <v>5.854803471875472</v>
+        <v>6.05005813601173</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.91399954732267</v>
+        <v>27.8749256045506</v>
       </c>
       <c r="G20">
-        <v>2.091582871401665</v>
+        <v>3.655361902557758</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.15689533157267</v>
+        <v>25.42693487517814</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.02694720088234</v>
+        <v>8.788401146213003</v>
       </c>
       <c r="L20">
-        <v>7.576674065992541</v>
+        <v>11.15978855363057</v>
       </c>
       <c r="M20">
-        <v>11.08835382195739</v>
+        <v>14.34139046159983</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.57631665993685</v>
+        <v>24.91986809655315</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.63961821359488</v>
+        <v>12.18463954339881</v>
       </c>
       <c r="C21">
-        <v>8.133321430118064</v>
+        <v>9.93157308239241</v>
       </c>
       <c r="D21">
-        <v>6.029132539814219</v>
+        <v>6.113978284087035</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.34983411182354</v>
+        <v>27.85761182309563</v>
       </c>
       <c r="G21">
-        <v>2.08579727319846</v>
+        <v>3.653387616503685</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.04720961293543</v>
+        <v>25.33125978507288</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.68640864144336</v>
+        <v>9.038537082933969</v>
       </c>
       <c r="L21">
-        <v>7.738978606272649</v>
+        <v>11.16108481835122</v>
       </c>
       <c r="M21">
-        <v>11.54468577237818</v>
+        <v>14.40909838929081</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.6363225018782</v>
+        <v>24.84829008911382</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.2350874828157</v>
+        <v>12.39651876703996</v>
       </c>
       <c r="C22">
-        <v>8.181241367117897</v>
+        <v>9.945050944928372</v>
       </c>
       <c r="D22">
-        <v>6.140203716839409</v>
+        <v>6.15497270293757</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.64992321387682</v>
+        <v>27.85219681946088</v>
       </c>
       <c r="G22">
-        <v>2.082077339405776</v>
+        <v>3.652146101354594</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.98935337328425</v>
+        <v>25.27267323631574</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.10171661836826</v>
+        <v>9.198995687116478</v>
       </c>
       <c r="L22">
-        <v>7.847261761290805</v>
+        <v>11.16342054552204</v>
       </c>
       <c r="M22">
-        <v>11.83746368266366</v>
+        <v>14.45490363602067</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.69087454733149</v>
+        <v>24.80583680758674</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91962687949922</v>
+        <v>12.28378566848667</v>
       </c>
       <c r="C23">
-        <v>8.155646526712708</v>
+        <v>9.937852517322135</v>
       </c>
       <c r="D23">
-        <v>6.081190159120697</v>
+        <v>6.133166243340678</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.48836148234336</v>
+        <v>27.85454709888645</v>
       </c>
       <c r="G23">
-        <v>2.084057350313179</v>
+        <v>3.652804269827881</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.01891702628478</v>
+        <v>25.30358095176925</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.88149671306861</v>
+        <v>9.113648260420216</v>
       </c>
       <c r="L23">
-        <v>7.789272017069582</v>
+        <v>11.16203810095448</v>
       </c>
       <c r="M23">
-        <v>11.68172259489235</v>
+        <v>14.43031721589288</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.6603133514659</v>
+        <v>24.82809849070447</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.67292270395929</v>
+        <v>11.84950258875958</v>
       </c>
       <c r="C24">
-        <v>8.059134956408938</v>
+        <v>9.910706232952936</v>
       </c>
       <c r="D24">
-        <v>5.851907059188501</v>
+        <v>6.049000560352378</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.90713250475712</v>
+        <v>27.87530820427246</v>
       </c>
       <c r="G24">
-        <v>2.091678516640568</v>
+        <v>3.655394997960457</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.15891064706907</v>
+        <v>25.42856513394054</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.01590454879258</v>
+        <v>8.784265528923195</v>
       </c>
       <c r="L24">
-        <v>7.574059695742736</v>
+        <v>11.15979257751166</v>
       </c>
       <c r="M24">
-        <v>11.08080797072504</v>
+        <v>14.34031068913115</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.57558523253902</v>
+        <v>24.92111093684372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.2155545073762</v>
+        <v>11.36799880040075</v>
       </c>
       <c r="C25">
-        <v>7.955987573832143</v>
+        <v>9.881711096302613</v>
       </c>
       <c r="D25">
-        <v>5.592890603828496</v>
+        <v>5.95502169444312</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.34510969750891</v>
+        <v>27.92302597995842</v>
       </c>
       <c r="G25">
-        <v>2.100183437622783</v>
+        <v>3.658400362899957</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.36447224520687</v>
+        <v>25.58028072191957</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.01534545693448</v>
+        <v>8.4177470043266</v>
       </c>
       <c r="L25">
-        <v>7.351918047592722</v>
+        <v>11.16379586087651</v>
       </c>
       <c r="M25">
-        <v>10.41155421489454</v>
+        <v>14.25018056082918</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.54569871775942</v>
+        <v>25.03996410723348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.00503465770099</v>
+        <v>13.0439436625733</v>
       </c>
       <c r="C2">
-        <v>9.860640405116646</v>
+        <v>7.880908842920996</v>
       </c>
       <c r="D2">
-        <v>5.883248273967437</v>
+        <v>5.392846255237749</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.97989136244867</v>
+        <v>19.98603276375642</v>
       </c>
       <c r="G2">
-        <v>3.660796443117949</v>
+        <v>2.106713040118882</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.70650928085748</v>
+        <v>16.55777867470159</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.140289405652602</v>
+        <v>11.22198870474381</v>
       </c>
       <c r="L2">
-        <v>11.17229863751233</v>
+        <v>7.197487973967025</v>
       </c>
       <c r="M2">
-        <v>14.19007656298228</v>
+        <v>9.903769085821155</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.14335259637067</v>
+        <v>16.57173957446826</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.75536320994728</v>
+        <v>12.18766426928894</v>
       </c>
       <c r="C3">
-        <v>9.846550413190339</v>
+        <v>7.830600696084107</v>
       </c>
       <c r="D3">
-        <v>5.833088253940462</v>
+        <v>5.251896952885009</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.03194421124823</v>
+        <v>19.77598545247501</v>
       </c>
       <c r="G3">
-        <v>3.6625355580594</v>
+        <v>2.111315744604137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.80110696411576</v>
+        <v>16.71265336111924</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.948690004046215</v>
+        <v>10.64979382249285</v>
       </c>
       <c r="L3">
-        <v>11.1815379742186</v>
+        <v>7.098781295354513</v>
       </c>
       <c r="M3">
-        <v>14.15337675779295</v>
+        <v>9.552234357011379</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.22329460217201</v>
+        <v>16.61691032653096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.6008167639836</v>
+        <v>11.63095892042208</v>
       </c>
       <c r="C4">
-        <v>9.837998286955269</v>
+        <v>7.800007067983036</v>
       </c>
       <c r="D4">
-        <v>5.801571884076187</v>
+        <v>5.162873226343795</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.0705530818498</v>
+        <v>19.66306407453751</v>
       </c>
       <c r="G4">
-        <v>3.663660554525146</v>
+        <v>2.114232703472814</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.86365266166924</v>
+        <v>16.81881158579288</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.82971824881734</v>
+        <v>10.2818410147497</v>
       </c>
       <c r="L4">
-        <v>11.18892913295986</v>
+        <v>7.041187576421429</v>
       </c>
       <c r="M4">
-        <v>14.13287277290985</v>
+        <v>9.33351734870231</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.27723960712031</v>
+        <v>16.65741196433763</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.53761492041673</v>
+        <v>11.39628560420849</v>
       </c>
       <c r="C5">
-        <v>9.83453906704924</v>
+        <v>7.787616611875879</v>
       </c>
       <c r="D5">
-        <v>5.788553091610778</v>
+        <v>5.126000367158989</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.0879553250115</v>
+        <v>19.62101691251501</v>
       </c>
       <c r="G5">
-        <v>3.66413342036395</v>
+        <v>2.115444700770469</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.89026221378755</v>
+        <v>16.86475423243766</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.780970590208806</v>
+        <v>10.12779761231882</v>
       </c>
       <c r="L5">
-        <v>11.19237359789029</v>
+        <v>7.018485746073194</v>
       </c>
       <c r="M5">
-        <v>14.12503361667828</v>
+        <v>9.243796708322794</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.30044318271412</v>
+        <v>16.67700789898346</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.52710955437921</v>
+        <v>11.3568456995409</v>
       </c>
       <c r="C6">
-        <v>9.833966253087299</v>
+        <v>7.785563887601889</v>
       </c>
       <c r="D6">
-        <v>5.786380868912155</v>
+        <v>5.119842606535496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.09094565117763</v>
+        <v>19.61427258256276</v>
       </c>
       <c r="G6">
-        <v>3.664212811644187</v>
+        <v>2.115647373169741</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.89474844392193</v>
+        <v>16.87254215850529</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.772862088976937</v>
+        <v>10.10197392311153</v>
       </c>
       <c r="L6">
-        <v>11.1929716825391</v>
+        <v>7.014762786831247</v>
       </c>
       <c r="M6">
-        <v>14.1237632852976</v>
+        <v>9.228866976642045</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.304369788568</v>
+        <v>16.68044503375507</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.59996518209634</v>
+        <v>11.62782569863267</v>
       </c>
       <c r="C7">
-        <v>9.837951528892837</v>
+        <v>7.799839652298357</v>
       </c>
       <c r="D7">
-        <v>5.801397012629305</v>
+        <v>5.162378315455964</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.07078102187032</v>
+        <v>19.66248103656712</v>
       </c>
       <c r="G7">
-        <v>3.663666873312579</v>
+        <v>2.114248953902343</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.86400698633827</v>
+        <v>16.81942045195952</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.82906180404007</v>
+        <v>10.27978001139434</v>
       </c>
       <c r="L7">
-        <v>11.18897383447514</v>
+        <v>7.040878289068564</v>
       </c>
       <c r="M7">
-        <v>14.13276495291381</v>
+        <v>9.332309559106539</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.27754759888879</v>
+        <v>16.6576638821792</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.91926013419522</v>
+        <v>12.75510239292067</v>
       </c>
       <c r="C8">
-        <v>9.855762129294206</v>
+        <v>7.863502556491933</v>
       </c>
       <c r="D8">
-        <v>5.866105023527327</v>
+        <v>5.344778228348926</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.99645772941896</v>
+        <v>19.91024119160237</v>
       </c>
       <c r="G8">
-        <v>3.661384250289538</v>
+        <v>2.108281473834141</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.73820015378546</v>
+        <v>16.60882121515869</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.074541899372617</v>
+        <v>11.02818864717465</v>
       </c>
       <c r="L8">
-        <v>11.17512805891214</v>
+        <v>7.162835484096583</v>
       </c>
       <c r="M8">
-        <v>14.17700487197114</v>
+        <v>9.783231099112909</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.16990689755172</v>
+        <v>16.58459272860392</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.53170222326224</v>
+        <v>14.72167069838594</v>
       </c>
       <c r="C9">
-        <v>9.891437079451872</v>
+        <v>7.990601777898284</v>
       </c>
       <c r="D9">
-        <v>5.987090555901492</v>
+        <v>5.681643730349936</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.90357224007345</v>
+        <v>20.52583585116479</v>
       </c>
       <c r="G9">
-        <v>3.657359663086222</v>
+        <v>2.097278472062428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.5269184551805</v>
+        <v>16.28839137587111</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.542535121834231</v>
+        <v>12.36126387534632</v>
       </c>
       <c r="L9">
-        <v>11.16158617989361</v>
+        <v>7.425363848125868</v>
       </c>
       <c r="M9">
-        <v>14.27958681603031</v>
+        <v>10.63955793706438</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.99745804377318</v>
+        <v>16.54797675225778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.96852682450382</v>
+        <v>16.02008471227342</v>
       </c>
       <c r="C10">
-        <v>9.918053342599071</v>
+        <v>8.085256926018209</v>
       </c>
       <c r="D10">
-        <v>6.072104077648014</v>
+        <v>5.915090628391221</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.86767906342812</v>
+        <v>21.05974511143696</v>
       </c>
       <c r="G10">
-        <v>3.654675307896885</v>
+        <v>2.089588710293123</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.39331081014716</v>
+        <v>16.11637505172699</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.874640639165385</v>
+        <v>13.25613319767787</v>
       </c>
       <c r="L10">
-        <v>11.15989796724426</v>
+        <v>7.631711524383617</v>
       </c>
       <c r="M10">
-        <v>14.36420667393092</v>
+        <v>11.2456928918777</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.89440495533887</v>
+        <v>16.59351605215457</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.16347822580899</v>
+        <v>16.57952639598435</v>
       </c>
       <c r="C11">
-        <v>9.930239078816019</v>
+        <v>8.12857884253479</v>
       </c>
       <c r="D11">
-        <v>6.109881366526182</v>
+        <v>6.018001399637275</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.85838979883902</v>
+        <v>21.32070522294654</v>
       </c>
       <c r="G11">
-        <v>3.653512699222399</v>
+        <v>2.086168528999982</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.3372296905568</v>
+        <v>16.05352707574154</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.022499389160169</v>
+        <v>13.64459000268289</v>
       </c>
       <c r="L11">
-        <v>11.16091394207632</v>
+        <v>7.728331187093601</v>
       </c>
       <c r="M11">
-        <v>14.4046194864403</v>
+        <v>11.51542773080441</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.85267620596873</v>
+        <v>16.63155421580849</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.23669048113209</v>
+        <v>16.78693115034097</v>
       </c>
       <c r="C12">
-        <v>9.934863723247192</v>
+        <v>8.145020368371847</v>
       </c>
       <c r="D12">
-        <v>6.124053168886225</v>
+        <v>6.056481441966652</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.8558845312153</v>
+        <v>21.42214025172667</v>
       </c>
       <c r="G12">
-        <v>3.653080819111362</v>
+        <v>2.084883950927815</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.31666933413077</v>
+        <v>16.03208812446997</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.077975851162147</v>
+        <v>13.78899874223785</v>
       </c>
       <c r="L12">
-        <v>11.1615541468363</v>
+        <v>7.765298894911574</v>
       </c>
       <c r="M12">
-        <v>14.42019030506381</v>
+        <v>11.61663772254603</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.83761668570327</v>
+        <v>16.64857911921325</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.22095118222156</v>
+        <v>16.74245972264834</v>
       </c>
       <c r="C13">
-        <v>9.933867287423798</v>
+        <v>8.141477787543803</v>
       </c>
       <c r="D13">
-        <v>6.121007036789621</v>
+        <v>6.048216128001375</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.85637906299462</v>
+        <v>21.40017791959319</v>
       </c>
       <c r="G13">
-        <v>3.653173460396522</v>
+        <v>2.085160148214422</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.32106728081778</v>
+        <v>16.03659802403014</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.066051662941103</v>
+        <v>13.75801756265227</v>
       </c>
       <c r="L13">
-        <v>11.16140492291256</v>
+        <v>7.757320583542637</v>
       </c>
       <c r="M13">
-        <v>14.41682509939343</v>
+        <v>11.59488282033646</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.84082698654918</v>
+        <v>16.64479389028148</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.16951408554181</v>
+        <v>16.59667850349888</v>
       </c>
       <c r="C14">
-        <v>9.930619353173915</v>
+        <v>8.12993077247129</v>
       </c>
       <c r="D14">
-        <v>6.11104999473775</v>
+        <v>6.021177090006916</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.85816340044632</v>
+        <v>21.3289978685216</v>
       </c>
       <c r="G14">
-        <v>3.653477000576048</v>
+        <v>2.086062637921271</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.33552461790474</v>
+        <v>16.0517151200037</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.027074063115109</v>
+        <v>13.65652458365648</v>
       </c>
       <c r="L14">
-        <v>11.16096149842072</v>
+        <v>7.731365016038739</v>
       </c>
       <c r="M14">
-        <v>14.40589519889284</v>
+        <v>11.52377339269046</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.85142236552363</v>
+        <v>16.63290160264408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.13792572267377</v>
+        <v>16.50680596646388</v>
       </c>
       <c r="C15">
-        <v>9.928631193558338</v>
+        <v>8.122862606555852</v>
       </c>
       <c r="D15">
-        <v>6.104933474304623</v>
+        <v>6.004550596290547</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.85938819552178</v>
+        <v>21.28573893738606</v>
       </c>
       <c r="G15">
-        <v>3.653664017127807</v>
+        <v>2.086616795978423</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.34446825926942</v>
+        <v>16.06128658366402</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.003130696508556</v>
+        <v>13.59400644703808</v>
       </c>
       <c r="L15">
-        <v>11.16072312549129</v>
+        <v>7.715515504213729</v>
       </c>
       <c r="M15">
-        <v>14.39923487820156</v>
+        <v>11.48009345712357</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.85800904998752</v>
+        <v>16.62596235819123</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.95570443142657</v>
+        <v>15.98289956735927</v>
       </c>
       <c r="C16">
-        <v>9.917258455404038</v>
+        <v>8.082430903046692</v>
       </c>
       <c r="D16">
-        <v>6.069616802448202</v>
+        <v>5.908297503113292</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.86842780847893</v>
+        <v>21.04305602699507</v>
       </c>
       <c r="G16">
-        <v>3.654752461190897</v>
+        <v>2.089813741831552</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.39707044286359</v>
+        <v>16.12080451526975</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.864908458559242</v>
+        <v>13.23037053986322</v>
       </c>
       <c r="L16">
-        <v>11.15986738128918</v>
+        <v>7.625451212056824</v>
       </c>
       <c r="M16">
-        <v>14.36160348897396</v>
+        <v>11.22793812051644</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.89723580964861</v>
+        <v>16.5913898478311</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.84290207750149</v>
+        <v>15.65353663282352</v>
       </c>
       <c r="C17">
-        <v>9.910300864749368</v>
+        <v>8.057693614250915</v>
       </c>
       <c r="D17">
-        <v>6.047718266982384</v>
+        <v>5.848394667966562</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.87577645488735</v>
+        <v>20.89882179739278</v>
       </c>
       <c r="G17">
-        <v>3.655435145475921</v>
+        <v>2.091794483577091</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.4305439506291</v>
+        <v>16.16136298213175</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.779251362363469</v>
+        <v>13.0025094767899</v>
       </c>
       <c r="L17">
-        <v>11.15979861148226</v>
+        <v>7.570893035602618</v>
       </c>
       <c r="M17">
-        <v>14.339003321795</v>
+        <v>11.07165901885597</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.92262051991119</v>
+        <v>16.57470994382296</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.77767091356112</v>
+        <v>15.461155016953</v>
       </c>
       <c r="C18">
-        <v>9.906306433609688</v>
+        <v>8.043490177086573</v>
       </c>
       <c r="D18">
-        <v>6.035038774182333</v>
+        <v>5.813631816239059</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.88066574601737</v>
+        <v>20.81756362266596</v>
       </c>
       <c r="G18">
-        <v>3.655833317793363</v>
+        <v>2.092941129202998</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.45023914369836</v>
+        <v>16.18613180680726</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.729683634715</v>
+        <v>12.86969708374708</v>
       </c>
       <c r="L18">
-        <v>11.1599270414018</v>
+        <v>7.539772485166687</v>
       </c>
       <c r="M18">
-        <v>14.32618544541974</v>
+        <v>10.9812102106286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.93770584442036</v>
+        <v>16.56673882293835</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.75552684556627</v>
+        <v>15.39551149945208</v>
       </c>
       <c r="C19">
-        <v>9.904955288379577</v>
+        <v>8.038685442702979</v>
       </c>
       <c r="D19">
-        <v>6.030731431653118</v>
+        <v>5.801809328599312</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.88243495180489</v>
+        <v>20.7903426854562</v>
       </c>
       <c r="G19">
-        <v>3.655969079742209</v>
+        <v>2.093330649201939</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.45698350656648</v>
+        <v>16.19476123483795</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.712850965893995</v>
+        <v>12.82442860189473</v>
       </c>
       <c r="L19">
-        <v>11.15999940718532</v>
+        <v>7.529280718221271</v>
       </c>
       <c r="M19">
-        <v>14.32187689935254</v>
+        <v>10.95049173298741</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.94289667538514</v>
+        <v>16.56431467340731</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.85494685637479</v>
+        <v>15.68890192023077</v>
       </c>
       <c r="C20">
-        <v>9.911040754618975</v>
+        <v>8.06032438528716</v>
       </c>
       <c r="D20">
-        <v>6.05005813601173</v>
+        <v>5.854803471875246</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.8749256045506</v>
+        <v>20.91399954732272</v>
       </c>
       <c r="G20">
-        <v>3.655361902557758</v>
+        <v>2.091582871401532</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.42693487517814</v>
+        <v>16.15689533157261</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.788401146213003</v>
+        <v>13.02694720088234</v>
       </c>
       <c r="L20">
-        <v>11.15978855363057</v>
+        <v>7.576674065992588</v>
       </c>
       <c r="M20">
-        <v>14.34139046159983</v>
+        <v>11.08835382195738</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.91986809655315</v>
+        <v>16.57631665993681</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.18463954339881</v>
+        <v>16.63961821359491</v>
       </c>
       <c r="C21">
-        <v>9.93157308239241</v>
+        <v>8.133321430118171</v>
       </c>
       <c r="D21">
-        <v>6.113978284087035</v>
+        <v>6.029132539814213</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.85761182309563</v>
+        <v>21.34983411182355</v>
       </c>
       <c r="G21">
-        <v>3.653387616503685</v>
+        <v>2.085797273198325</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.33125978507288</v>
+        <v>16.04720961293547</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.038537082933969</v>
+        <v>13.6864086414434</v>
       </c>
       <c r="L21">
-        <v>11.16108481835122</v>
+        <v>7.73897860627261</v>
       </c>
       <c r="M21">
-        <v>14.40909838929081</v>
+        <v>11.54468577237816</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.84829008911382</v>
+        <v>16.63632250187819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.39651876703996</v>
+        <v>17.23508748281576</v>
       </c>
       <c r="C22">
-        <v>9.945050944928372</v>
+        <v>8.18124136711813</v>
       </c>
       <c r="D22">
-        <v>6.15497270293757</v>
+        <v>6.140203716839299</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.85219681946088</v>
+        <v>21.64992321387677</v>
       </c>
       <c r="G22">
-        <v>3.652146101354594</v>
+        <v>2.082077339405775</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.27267323631574</v>
+        <v>15.98935337328418</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.198995687116478</v>
+        <v>14.10171661836835</v>
       </c>
       <c r="L22">
-        <v>11.16342054552204</v>
+        <v>7.84726176129079</v>
       </c>
       <c r="M22">
-        <v>14.45490363602067</v>
+        <v>11.83746368266364</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.80583680758674</v>
+        <v>16.69087454733139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.28378566848667</v>
+        <v>16.91962687949923</v>
       </c>
       <c r="C23">
-        <v>9.937852517322135</v>
+        <v>8.155646526712815</v>
       </c>
       <c r="D23">
-        <v>6.133166243340678</v>
+        <v>6.081190159120635</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.85454709888645</v>
+        <v>21.48836148234328</v>
       </c>
       <c r="G23">
-        <v>3.652804269827881</v>
+        <v>2.084057350313048</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.30358095176925</v>
+        <v>16.0189170262847</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.113648260420216</v>
+        <v>13.88149671306865</v>
       </c>
       <c r="L23">
-        <v>11.16203810095448</v>
+        <v>7.789272017069626</v>
       </c>
       <c r="M23">
-        <v>14.43031721589288</v>
+        <v>11.68172259489235</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.82809849070447</v>
+        <v>16.66031335146577</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.84950258875958</v>
+        <v>15.67292270395931</v>
       </c>
       <c r="C24">
-        <v>9.910706232952936</v>
+        <v>8.059134956408784</v>
       </c>
       <c r="D24">
-        <v>6.049000560352378</v>
+        <v>5.851907059188657</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.87530820427246</v>
+        <v>20.90713250475702</v>
       </c>
       <c r="G24">
-        <v>3.655394997960457</v>
+        <v>2.091678516640032</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.42856513394054</v>
+        <v>16.15891064706899</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.784265528923195</v>
+        <v>13.01590454879254</v>
       </c>
       <c r="L24">
-        <v>11.15979257751166</v>
+        <v>7.574059695742702</v>
       </c>
       <c r="M24">
-        <v>14.34031068913115</v>
+        <v>11.08080797072503</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.92111093684372</v>
+        <v>16.57558523253897</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.36799880040075</v>
+        <v>14.21555450737617</v>
       </c>
       <c r="C25">
-        <v>9.881711096302613</v>
+        <v>7.955987573832503</v>
       </c>
       <c r="D25">
-        <v>5.95502169444312</v>
+        <v>5.592890603828645</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.92302597995842</v>
+        <v>20.34510969750881</v>
       </c>
       <c r="G25">
-        <v>3.658400362899957</v>
+        <v>2.100183437622518</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.58028072191957</v>
+        <v>16.36447224520683</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.4177470043266</v>
+        <v>12.01534545693453</v>
       </c>
       <c r="L25">
-        <v>11.16379586087651</v>
+        <v>7.351918047592681</v>
       </c>
       <c r="M25">
-        <v>14.25018056082918</v>
+        <v>10.41155421489451</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.03996410723348</v>
+        <v>16.54569871775934</v>
       </c>
     </row>
   </sheetData>
